--- a/biology/Zoologie/Cyrtodactylus/Cyrtodactylus.xlsx
+++ b/biology/Zoologie/Cyrtodactylus/Cyrtodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtodactylus est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les plus de 350 espèces de ce genre se rencontrent dans le sud de l'Asie et dans l'ouest de l'Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus de 350 espèces de ce genre se rencontrent dans le sud de l'Asie et dans l'ouest de l'Océanie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos nocturnes et terrestres.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyrtodactylus signifie "doigt courbé", du grec ancien Cyrto- "κυρτός" (kurtós) voulant dire "courbé, convexe" et -dactylus "δάκτυλος" (daktylos) voulant dire "doigt".
 </t>
@@ -604,98 +622,100 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (08 mars 2024)[2] :
-Cyrtodactylus aaronbaueri Purkayastha et al., 2021[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (08 mars 2024) :
+Cyrtodactylus aaronbaueri Purkayastha et al., 2021
 Cyrtodactylus aaroni Günther &amp; Rösler, 2003
 Cyrtodactylus adleri Das, 1997
 Cyrtodactylus adorus Shea et al., 2011
 Cyrtodactylus aequalis Bauer, 2003
 Cyrtodactylus agamensis (Bleeker, 1860)
-Cyrtodactylus agarwali Purkayastha et al., 2021[3]
+Cyrtodactylus agarwali Purkayastha et al., 2021
 Cyrtodactylus agusanensis (Taylor, 1915)
 Cyrtodactylus albofasciatus (Boulenger, 1885)
-Cyrtodactylus amphipetraeus Chomdej et al., 2020[4]
+Cyrtodactylus amphipetraeus Chomdej et al., 2020
 Cyrtodactylus angularis (Smith, 1921)
 Cyrtodactylus annandalei Bauer, 2003
 Cyrtodactylus annulatus (Taylor, 1915)
-Cyrtodactylus aravindi Narayanan et al., 2022[5]
+Cyrtodactylus aravindi Narayanan et al., 2022
 Cyrtodactylus arcanus Oliver et al., 2012
-Cyrtodactylus arndti Ngo et al., 2023[6]
-Cyrtodactylus arunachalensis Mirza et al., 2021[7]
+Cyrtodactylus arndti Ngo et al., 2023
+Cyrtodactylus arunachalensis Mirza et al., 2021
 Cyrtodactylus astrum Grismer et al., 2012
-Cyrtodactylus atremus Kraus &amp; Weijola, 2019[8]
-Cyrtodactylus aunglini Grismer et al., 2018[9]
-Cyrtodactylus auralensis Murdoch et al., 2019[10]
+Cyrtodactylus atremus Kraus &amp; Weijola, 2019
+Cyrtodactylus aunglini Grismer et al., 2018
+Cyrtodactylus auralensis Murdoch et al., 2019
 Cyrtodactylus aurensis Grismer, 2005
 Cyrtodactylus auribalteatus Sumontha et al., 2010
 Cyrtodactylus australotitiwangsaensis Grismer et al., 2012
-Cyrtodactylus awalriyantoi Ahda et al., 2023[11]
+Cyrtodactylus awalriyantoi Ahda et al., 2023
 Cyrtodactylus ayeyarwadyensis Bauer, 2003
 Cyrtodactylus badenensis Sang et al., 2007
 Cyrtodactylus baluensis (Mocquard, 1890)
-Cyrtodactylus bansocensis Luu et al., 2016[12]
-Cyrtodactylus bapme Kamei &amp; Mahony, 2021[13]
-Cyrtodactylus batik Iskandar et al., 2011[14]
+Cyrtodactylus bansocensis Luu et al., 2016
+Cyrtodactylus bapme Kamei &amp; Mahony, 2021
+Cyrtodactylus batik Iskandar et al., 2011
 Cyrtodactylus battalensis Khan, 1993
 Cyrtodactylus batucolus Grismer et al., 2008
-Cyrtodactylus bayinnyiensis Grismer et al., 2018[15]
-Cyrtodactylus bengkhuaiai Purkayastha et al., 2021[3]
-Cyrtodactylus bhupathyi Agarwal et al., 2018[16]
+Cyrtodactylus bayinnyiensis Grismer et al., 2018
+Cyrtodactylus bengkhuaiai Purkayastha et al., 2021
+Cyrtodactylus bhupathyi Agarwal et al., 2018
 Cyrtodactylus bichnganae Ngo Van Tri &amp; Grismer, 2010
 Cyrtodactylus bidoupimontis Nazarov et al., 2012
 Cyrtodactylus bintangrendah Grismer et al., 2012
 Cyrtodactylus bintangtinggi Grismer et al., 2012
 Cyrtodactylus biordinis Brown &amp; McCoy, 1980
 Cyrtodactylus bobrovi Nguyen et al., 2015
-Cyrtodactylus bokorensis Murdoch et al., 2019[10]
+Cyrtodactylus bokorensis Murdoch et al., 2019
 Cyrtodactylus boreoclivus Oliver et al., 2011
 Cyrtodactylus brevidactylus Bauer, 2002
 Cyrtodactylus brevipalmatus (Smith, 1923)
 Cyrtodactylus buchardi David et al., 2004
 Cyrtodactylus bugiamapensis Nazarov et al., 2012
-Cyrtodactylus caixitaoi Liu et al., 2023[17]
-Cyrtodactylus calamei Luu et al., 2016[18]
-Cyrtodactylus camortensis Chandramouli, 2020[19]
+Cyrtodactylus caixitaoi Liu et al., 2023
+Cyrtodactylus calamei Luu et al., 2016
+Cyrtodactylus camortensis Chandramouli, 2020
 Cyrtodactylus caovansungi Orlov et al., 2007
 Cyrtodactylus capreoloides Rösler et al., 2007
-Cyrtodactylus cardamomensis Murdoch et al., 2019[10]
+Cyrtodactylus cardamomensis Murdoch et al., 2019
 Cyrtodactylus cattienensis Geissler et al., 2009
 Cyrtodactylus cavernicolus Inger &amp; King, 1961
 Cyrtodactylus cayuensis Li, 2007
 Cyrtodactylus celatus Kathriner et al., 2014
-Cyrtodactylus chamba Agarwal et al., 2018[20]
+Cyrtodactylus chamba Agarwal et al., 2018
 Cyrtodactylus chanhomeae Bauer et al., 2003
-Cyrtodactylus chaunghanakwaensis Grismer et al., 2018[15]
+Cyrtodactylus chaunghanakwaensis Grismer et al., 2018
 Cyrtodactylus chauquangensis Quang et al., 2007
-Cyrtodactylus chengodumalaensis Agarwal et al., 2023[21]
+Cyrtodactylus chengodumalaensis Agarwal et al., 2023
 Cyrtodactylus chrysopylos Bauer, 2003
-Cyrtodactylus chumuensis Ngo et al., 2023[6]
-Cyrtodactylus chungi Ostrowski et al., 2021[22]
+Cyrtodactylus chumuensis Ngo et al., 2023
+Cyrtodactylus chungi Ostrowski et al., 2021
 Cyrtodactylus collegalensis (Beddome, 1870)
 Cyrtodactylus condorensis (Smith, 1921)
 Cyrtodactylus consobrinoides (Annandale, 1905)
 Cyrtodactylus consobrinus (Peters, 1871)
 Cyrtodactylus cracens Batuwita &amp; Bahir, 2005
-Cyrtodactylus crustulus Oliver et al., 2020[23]
+Cyrtodactylus crustulus Oliver et al., 2020
 Cyrtodactylus cryptus Heidrich et al., 2007
 Cyrtodactylus cucdongensis Schneider et al., 2014
 Cyrtodactylus cucphuongensis Ngo &amp; Onn, 2011
-Cyrtodactylus culaochamensis Tri et al., 2020[24]
-Cyrtodactylus dammathetensis Grismer et al., 2017[25]
+Cyrtodactylus culaochamensis Tri et al., 2020
+Cyrtodactylus dammathetensis Grismer et al., 2017
 Cyrtodactylus darevskii Nazarov et al., 2014
 Cyrtodactylus darmandvillei (Weber, 1890)
 Cyrtodactylus dati Ngo Van Tri, 2013
 Cyrtodactylus dattanensis (Khan, 1980)
-Cyrtodactylus dattkyaikensis Grismer et al., 2020[26]
-Cyrtodactylus dayangbuntingensis Quah et al., 2019[27]
+Cyrtodactylus dattkyaikensis Grismer et al., 2020
+Cyrtodactylus dayangbuntingensis Quah et al., 2019
 Cyrtodactylus deccanensis (Günther, 1864)
-Cyrtodactylus denticulatus Chomdej et al., 2023[28]
+Cyrtodactylus denticulatus Chomdej et al., 2023
 Cyrtodactylus derongo Brown &amp; Parker, 1973
 Cyrtodactylus deveti (Brongersma, 1948)
-Cyrtodactylus dianxiensis Liu &amp; Rao, 2021[29]
-Cyrtodactylus disjunctus Grismer et al., 2023[30]
+Cyrtodactylus dianxiensis Liu &amp; Rao, 2021
+Cyrtodactylus disjunctus Grismer et al., 2023
 Cyrtodactylus doisuthep Kunya et al., 2014
 Cyrtodactylus dumnuii Bauer et al., 2010
 Cyrtodactylus durio Grismer et al., 2010
@@ -703,42 +723,42 @@
 Cyrtodactylus eisenmanae Ngo Van Tri, 2008
 Cyrtodactylus elok Dring, 1979
 Cyrtodactylus epiroticus Kraus, 2008
-Cyrtodactylus equestris Oliver et al., 2016[31]
+Cyrtodactylus equestris Oliver et al., 2016
 Cyrtodactylus erythrops Bauer et al., 2009
-Cyrtodactylus evanquahi Wood et al., 2020[32]
-Cyrtodactylus exercitus Purkayastha et al., 2022[33]
+Cyrtodactylus evanquahi Wood et al., 2020
+Cyrtodactylus exercitus Purkayastha et al., 2022
 Cyrtodactylus fasciolatum (Blyth, 1861)
 Cyrtodactylus feae (Boulenger, 1893)
-Cyrtodactylus fluvicavus Grismer et al., 2022[34]
+Cyrtodactylus fluvicavus Grismer et al., 2022
 Cyrtodactylus fraenatus (Günther, 1864)
 Cyrtodactylus fumosus (Müller, 1895)
 Cyrtodactylus gansi Bauer, 2003
-Cyrtodactylus gialaiensis Luu et al., 2017[35]
-Cyrtodactylus gonjong Nugraha et al., 2023[36]
+Cyrtodactylus gialaiensis Luu et al., 2017
+Cyrtodactylus gonjong Nugraha et al., 2023
 Cyrtodactylus gordongekkoi (Das, 1994)
 Cyrtodactylus grismeri Ngo Van Tri, 2008
 Cyrtodactylus guakanthanensis Grismer et al., 2014
 Cyrtodactylus gubaot Welton et al., 2010
 Cyrtodactylus gubernatoris (Annandale, 1913)
-Cyrtodactylus gulinqingensis Liu et al., 2021[37]
-Cyrtodactylus gunungsenyumensis Grismer et al., 2016[38]
-Cyrtodactylus guwahatiensis Agarwal et al., 2018[39]
+Cyrtodactylus gulinqingensis Liu et al., 2021
+Cyrtodactylus gunungsenyumensis Grismer et al., 2016
+Cyrtodactylus guwahatiensis Agarwal et al., 2018
 Cyrtodactylus halmahericus (Mertens, 1929)
-Cyrtodactylus hamidyi Riyanto et al., 2021[40]
-Cyrtodactylus hantu Davis et al., 2021[41]
-Cyrtodactylus hekouensis Zhang et al., 2021[42]
-Cyrtodactylus hidupselamanya Grismer et al., 2016[43]
+Cyrtodactylus hamidyi Riyanto et al., 2021
+Cyrtodactylus hantu Davis et al., 2021
+Cyrtodactylus hekouensis Zhang et al., 2021
+Cyrtodactylus hidupselamanya Grismer et al., 2016
 Cyrtodactylus hikidai Riyanto, 2012
 Cyrtodactylus himalayanus Duda &amp; Sahi, 1978
 Cyrtodactylus himalayicus (Annandale, 1906)
-Cyrtodactylus hinnamnoensis Luu et al., 2016[18]
-Cyrtodactylus hitchi Riyanto et al., 2016[44]
+Cyrtodactylus hinnamnoensis Luu et al., 2016
+Cyrtodactylus hitchi Riyanto et al., 2016
 Cyrtodactylus hontreensis Ngo Van Tri et al., 2008
 Cyrtodactylus hoskini Shea et al., 2011
-Cyrtodactylus houaphanensis Schneider et al., 2020[45]
+Cyrtodactylus houaphanensis Schneider et al., 2020
 Cyrtodactylus huongsonensis Luu et al., 2011
-Cyrtodactylus hutan Davis et al., 2023[46]
-Cyrtodactylus hutchinsoni Oliver et al., 2022[47]
+Cyrtodactylus hutan Davis et al., 2023
+Cyrtodactylus hutchinsoni Oliver et al., 2022
 Cyrtodactylus huynhi Ngo &amp; Bauer, 2008
 Cyrtodactylus ingeri Hikida, 1990
 Cyrtodactylus interdigitalis Ulber, 1993
@@ -746,53 +766,53 @@
 Cyrtodactylus inthanon Kunya et al., 2015
 Cyrtodactylus irianjayaensis Rösler, 2001
 Cyrtodactylus irregularis (Smith, 1921)
-Cyrtodactylus irulaorum Agarwal et al., 2023[48]
+Cyrtodactylus irulaorum Agarwal et al., 2023
 Cyrtodactylus jaegeri Luu et al., 2014
-Cyrtodactylus jaintiaensis Agarwal et al., 2018[39]
+Cyrtodactylus jaintiaensis Agarwal et al., 2018
 Cyrtodactylus jambangan Welton et al., 2010
 Cyrtodactylus jarakensis Grismer et al., 2008
 Cyrtodactylus jarujini Ulber, 1993
-Cyrtodactylus jatnai Amarasinghe et al., 2020[49]
+Cyrtodactylus jatnai Amarasinghe et al., 2020
 Cyrtodactylus jelawangensis Grismer et al., 2014
 Cyrtodactylus jellesmae (Boulenger, 1897)
 Cyrtodactylus jeyporensis (Beddome, 1878)
-Cyrtodactylus kamengensis Mirza et al., 2022[50]
-Cyrtodactylus kapitensis Davis et al., 2023[46]
-Cyrtodactylus karsticolus Purkayastha et al., 2021[3]
-Cyrtodactylus kazirangaensis Agarwal et al., 2018[39]
+Cyrtodactylus kamengensis Mirza et al., 2022
+Cyrtodactylus kapitensis Davis et al., 2023
+Cyrtodactylus karsticolus Purkayastha et al., 2021
+Cyrtodactylus kazirangaensis Agarwal et al., 2018
 Cyrtodactylus khammouanensis Nazarov et al., 2014
 Cyrtodactylus khasiensis (Jerdon, 1870)
 Cyrtodactylus khelangensis Pauwels et al., 2014
 Cyrtodactylus kimberleyensis Bauer &amp; Doughty, 2012
 Cyrtodactylus kingsadai Ziegler et al., 2013
 Cyrtodactylus klugei Kraus, 2008
-Cyrtodactylus kochangensis Grismer et al., 2022[34]
-Cyrtodactylus kohrongensis Grismer et al., 2020[51]
-Cyrtodactylus kulenensis Grismer et al., 2021[52]
+Cyrtodactylus kochangensis Grismer et al., 2022
+Cyrtodactylus kohrongensis Grismer et al., 2020
+Cyrtodactylus kulenensis Grismer et al., 2021
 Cyrtodactylus kunyai Pauwels et al., 2014
-Cyrtodactylus laangensis Murdoch et al., 2019[10]
+Cyrtodactylus laangensis Murdoch et al., 2019
 Cyrtodactylus laevigatus Darevsky, 1964
 Cyrtodactylus langkawiensis Grismer et al., 2012
 Cyrtodactylus lateralis (Werner, 1896)
 Cyrtodactylus lawderanus (Stoliczka, 1871)
 Cyrtodactylus leegrismeri Chan &amp; Norhayati, 2010
 Cyrtodactylus lekaguli Grismer et al., 2012
-Cyrtodactylus lenggongensis Grismer et al., 2016[43]
-Cyrtodactylus lenya Mulcahy et al., 2017[53]
-Cyrtodactylus limajalur Davis et al., 2019[54]
-Cyrtodactylus linnoensis Grismer et al., 2017[25]
-Cyrtodactylus linnwayensis Grismer et al., 2017[25]
+Cyrtodactylus lenggongensis Grismer et al., 2016
+Cyrtodactylus lenya Mulcahy et al., 2017
+Cyrtodactylus limajalur Davis et al., 2019
+Cyrtodactylus linnoensis Grismer et al., 2017
+Cyrtodactylus linnwayensis Grismer et al., 2017
 Cyrtodactylus lomyenensis Ngo Van Tri &amp; Pauwels, 2010
 Cyrtodactylus loriae (Boulenger, 1897)
 Cyrtodactylus louisiadensis (De Vis, 1892)
-Cyrtodactylus lungleiensis Lalremsanga et al., 2022[55]
+Cyrtodactylus lungleiensis Lalremsanga et al., 2022
 Cyrtodactylus macrotuberculatus Grismer &amp; Ahmad, 2008
-Cyrtodactylus maelanoi Grismer et al., 2020[56]
+Cyrtodactylus maelanoi Grismer et al., 2020
 Cyrtodactylus majulah Grismer et al., 2012
 Cyrtodactylus malayanus (De Rooij, 1915)
 Cyrtodactylus mamanwa Welton et al., 2010
 Cyrtodactylus mandalayensis Mahony, 2009
-Cyrtodactylus manos Oliver et al., 2019[57]
+Cyrtodactylus manos Oliver et al., 2019
 Cyrtodactylus markuscombaii (Darevsky et al., 1998)
 Cyrtodactylus marmoratus Gray, 1831
 Cyrtodactylus martini Ngo Van Tri, 2011
@@ -800,137 +820,137 @@
 Cyrtodactylus matsuii Hikida, 1990
 Cyrtodactylus mcdonaldi Shea et al., 2011
 Cyrtodactylus medioclivus Oliver et al., 2012
-Cyrtodactylus meersi Grismer et al., 2018[58]
-Cyrtodactylus menglianensis Liu &amp; Rao, 2022[59]
+Cyrtodactylus meersi Grismer et al., 2018
+Cyrtodactylus menglianensis Liu &amp; Rao, 2022
 Cyrtodactylus metropolis Grismer et al., 2014
 Cyrtodactylus mimikanus (Boulenger, 1914)
 Cyrtodactylus minor Oliver &amp; Richards, 2012
-Cyrtodactylus miriensis Davis et al., 2021[41]
-Cyrtodactylus mombergi Grismer et al., 2019[60]
-Cyrtodactylus monilatus Yodthong et al., 2022[61]
-Cyrtodactylus montanus Agarwal et al., 2018[39]
-Cyrtodactylus muangfuangensis Sitthivong et al., 2019[62]
+Cyrtodactylus miriensis Davis et al., 2021
+Cyrtodactylus mombergi Grismer et al., 2019
+Cyrtodactylus monilatus Yodthong et al., 2022
+Cyrtodactylus montanus Agarwal et al., 2018
+Cyrtodactylus muangfuangensis Sitthivong et al., 2019
 Cyrtodactylus multiporus Nazarov et al., 2014
-Cyrtodactylus muluensis Davis et al., 2019[54]
+Cyrtodactylus muluensis Davis et al., 2019
 Cyrtodactylus murua Kraus &amp; Allison, 2006
-Cyrtodactylus myaleiktaung Grismer et al., 2018[9]
-Cyrtodactylus myintkyawthurai Grismer et al., 2018[58]
-Cyrtodactylus nagalandensis Agarwal et al., 2018[39]
-Cyrtodactylus namtiram Mahony &amp; Kamei, 2022[63]
-Cyrtodactylus naungkayaingensis Grismer et al., 2018[15]
+Cyrtodactylus myaleiktaung Grismer et al., 2018
+Cyrtodactylus myintkyawthurai Grismer et al., 2018
+Cyrtodactylus nagalandensis Agarwal et al., 2018
+Cyrtodactylus namtiram Mahony &amp; Kamei, 2022
+Cyrtodactylus naungkayaingensis Grismer et al., 2018
 Cyrtodactylus nebulosus (Beddome, 1870)
 Cyrtodactylus nepalensis (Schleich &amp; Kästle, 1998)
-Cyrtodactylus ngati Le et al., 2021[64]
-Cyrtodactylus ngoiensis Schneider et al., 2020[45]
-Cyrtodactylus ngopensis Bohra et al., 2022[65]
-Cyrtodactylus nicobaricus Chandramouli, 2020[19]
+Cyrtodactylus ngati Le et al., 2021
+Cyrtodactylus ngoiensis Schneider et al., 2020
+Cyrtodactylus ngopensis Bohra et al., 2022
+Cyrtodactylus nicobaricus Chandramouli, 2020
 Cyrtodactylus nigriocularis Sang et al., 2006
 Cyrtodactylus novaeguineae (Schlegel, 1837)
 Cyrtodactylus nuaulu Oliver et al., 2009
-Cyrtodactylus nyinyikyawi Grismer et al., 2019[66]
+Cyrtodactylus nyinyikyawi Grismer et al., 2019
 Cyrtodactylus oldhami (Theobald, 1876)
-Cyrtodactylus orlovi Do et al., 2021[67]
+Cyrtodactylus orlovi Do et al., 2021
 Cyrtodactylus otai Nguyen et al., 2015
 Cyrtodactylus pageli Schneider et al., 2011
 Cyrtodactylus pantiensis Grismer et al., 2008
-Cyrtodactylus papeda Riyanto et al., 2022[68]
+Cyrtodactylus papeda Riyanto et al., 2022
 Cyrtodactylus papilionoides Ulber &amp; Grossmann, 1991
 Cyrtodactylus papuensis Brongersma, 1934
 Cyrtodactylus paradoxus (Darevsky &amp; Szczerbak, 1997)
 Cyrtodactylus payacola Johnson et al., 2012
-Cyrtodactylus payarhtanensis Mulcahy et al., 2017[53]
+Cyrtodactylus payarhtanensis Mulcahy et al., 2017
 Cyrtodactylus peguensis (Boulenger, 1893)
-Cyrtodactylus petani Riyanto et al., 2015[69]
-Cyrtodactylus pharbaungensis Grismer et al., 2017[25]
+Cyrtodactylus petani Riyanto et al., 2015
+Cyrtodactylus pharbaungensis Grismer et al., 2017
 Cyrtodactylus phetchaburiensis Pauwels et al., 2016
 Cyrtodactylus philippinicus (Steindachner, 1867)
-Cyrtodactylus phnomchiensis Neang et al., 2020[70]
+Cyrtodactylus phnomchiensis Neang et al., 2020
 Cyrtodactylus phongnhakebangensis Ziegler et al., 2003
-Cyrtodactylus phukhaensis Chomdej et al., 2022[71]
-Cyrtodactylus phumyensis Ostrowski et al., 2020[72]
+Cyrtodactylus phukhaensis Chomdej et al., 2022
+Cyrtodactylus phumyensis Ostrowski et al., 2020
 Cyrtodactylus phuocbinhensis Nguyen et al., 2013
 Cyrtodactylus phuquocensis Ngo Van Tri et al., 2010
-Cyrtodactylus pinlaungensis Grismer et al., 2019[73]
+Cyrtodactylus pinlaungensis Grismer et al., 2019
 Cyrtodactylus pronarus Shea et al., 2011
 Cyrtodactylus psarops Harvey et al., 2015
 Cyrtodactylus pseudoquadrivirgatus Rösler et al., 2008
 Cyrtodactylus pubisulcus Inger, 1958
 Cyrtodactylus puhuensis Nguyen et al., 2014
 Cyrtodactylus pulchellus Gray, 1827
-Cyrtodactylus pyadalinensis Grismer et al., 2019[66]
-Cyrtodactylus pyinyaungensis Grismer et al., 2017[25]
+Cyrtodactylus pyadalinensis Grismer et al., 2019
+Cyrtodactylus pyinyaungensis Grismer et al., 2017
 Cyrtodactylus quadrivirgatus Taylor, 1962
-Cyrtodactylus raglai Nguyen et al., 2021[74]
+Cyrtodactylus raglai Nguyen et al., 2021
 Cyrtodactylus ranongensis Sumontha et al., 2015
 Cyrtodactylus redimiculus King, 1962
-Cyrtodactylus relictus Agarwal et al., 2023[48]
-Cyrtodactylus rex Oliver et al., 2016[31]
-Cyrtodactylus rishivalleyensis Agarwal, 2016[75]
-Cyrtodactylus rivularis Grismer et al., 2022[34]
+Cyrtodactylus relictus Agarwal et al., 2023
+Cyrtodactylus rex Oliver et al., 2016
+Cyrtodactylus rishivalleyensis Agarwal, 2016
+Cyrtodactylus rivularis Grismer et al., 2022
 Cyrtodactylus robustus Kraus, 2008
 Cyrtodactylus roesleri Ziegler et al., 2010
 Cyrtodactylus rosichonarieforum Riyanto et al., 2015
 Cyrtodactylus rubidus (Blyth, 1861)
-Cyrtodactylus rufford Luu et al., 2016[76]
-Cyrtodactylus rukhadeva Grismer et al., 2021[77]
+Cyrtodactylus rufford Luu et al., 2016
+Cyrtodactylus rukhadeva Grismer et al., 2021
 Cyrtodactylus russelli Bauer, 2003
-Cyrtodactylus sadanensis Grismer et al., 2017[25]
-Cyrtodactylus sadansinensis Grismer et al., 2017[25]
+Cyrtodactylus sadanensis Grismer et al., 2017
+Cyrtodactylus sadansinensis Grismer et al., 2017
 Cyrtodactylus sadleiri (Wells &amp; Wellington, 1985)
 Cyrtodactylus saiyok Panitvong et al., 2014
 Cyrtodactylus salomonensis Rösler et al., 2007
 Cyrtodactylus samroiyot Pauwels &amp; Sumontha, 2014
-Cyrtodactylus sangi Pauwels et al., 2018[78]
+Cyrtodactylus sangi Pauwels et al., 2018
 Cyrtodactylus sanook Pauwels et al., 2013
-Cyrtodactylus sanpelensis Grismer et al., 2017[25]
-Cyrtodactylus santana Chan et al., 2023[79]
+Cyrtodactylus sanpelensis Grismer et al., 2017
+Cyrtodactylus santana Chan et al., 2023
 Cyrtodactylus semenanjungensis Grismer &amp; Leong, 2005
 Cyrtodactylus semiadii Riyanto et al., 2014
 Cyrtodactylus semicinctus Harvey et al., 2015
-Cyrtodactylus septentrionalis Agarwal et al., 2018[39]
-Cyrtodactylus septimontium Murdoch et al., 2019[10]
+Cyrtodactylus septentrionalis Agarwal et al., 2018
+Cyrtodactylus septimontium Murdoch et al., 2019
 Cyrtodactylus seribuatensis Youmans &amp; Grismer, 2006
 Cyrtodactylus sermowaiensis (De Rooij, 1915)
 Cyrtodactylus serratus Kraus, 2007
 Cyrtodactylus sharkari Grismer et al., 2014
-Cyrtodactylus shwetaungorum Grismer et al., 2017[25]
-Cyrtodactylus siahaensis Purkayastha et al., 2022[33]
-Cyrtodactylus sinyineensis Grismer et al., 2017[25]
+Cyrtodactylus shwetaungorum Grismer et al., 2017
+Cyrtodactylus siahaensis Purkayastha et al., 2022
+Cyrtodactylus sinyineensis Grismer et al., 2017
 Cyrtodactylus slowinskii Bauer, 2002
 Cyrtodactylus soba Batuwita &amp; Bahir, 2005
-Cyrtodactylus sommerladi Luu et al., 2016[18]
-Cyrtodactylus soni Le et al., 2016[80]
-Cyrtodactylus sonlaensis Nguyen et al., 2017[81]
-Cyrtodactylus soudthichaki Luu et al., 2015[82]
+Cyrtodactylus sommerladi Luu et al., 2016
+Cyrtodactylus soni Le et al., 2016
+Cyrtodactylus sonlaensis Nguyen et al., 2017
+Cyrtodactylus soudthichaki Luu et al., 2015
 Cyrtodactylus speciosus (Beddome, 1870)
 Cyrtodactylus spelaeus Nazarov et al., 2014
 Cyrtodactylus spinosus Linkem et al., 2008
-Cyrtodactylus srilekhae Agarwal, 2016[75]
-Cyrtodactylus stellatus Termprayoon et al., 2021[83]
+Cyrtodactylus srilekhae Agarwal, 2016
+Cyrtodactylus stellatus Termprayoon et al., 2021
 Cyrtodactylus stresemanni Rösler &amp; Glaw, 2008
 Cyrtodactylus sumuroi Welton et al., 2010
-Cyrtodactylus sungaiupe Termprayoon et al., 2023[84]
+Cyrtodactylus sungaiupe Termprayoon et al., 2023
 Cyrtodactylus surin Chan-Ard &amp; Makchai, 2011
 Cyrtodactylus sworderi (Smith, 1925)
-Cyrtodactylus tahuna Riyanto et al., 2018[85]
+Cyrtodactylus tahuna Riyanto et al., 2018
 Cyrtodactylus takouensis Ngo &amp; Bauer, 2008
 Cyrtodactylus tamaiensis (Smith, 1940)
-Cyrtodactylus tambora Riyanto et al., 2017[86]
-Cyrtodactylus tanahjampea Riyanto et al., 2018[87]
-Cyrtodactylus tanim Nielsen &amp; Oliver, 2017[88]
-Cyrtodactylus taungwineensis Grismer et al., 2020[26]
+Cyrtodactylus tambora Riyanto et al., 2017
+Cyrtodactylus tanahjampea Riyanto et al., 2018
+Cyrtodactylus tanim Nielsen &amp; Oliver, 2017
+Cyrtodactylus taungwineensis Grismer et al., 2020
 Cyrtodactylus tautbatorum Welton et al., 2009
-Cyrtodactylus taybacensis Pham et al., 2019[89]
-Cyrtodactylus tayhoaensis Do et al., 2023[90]
+Cyrtodactylus taybacensis Pham et al., 2019
+Cyrtodactylus tayhoaensis Do et al., 2023
 Cyrtodactylus taynguyenensis Nguyen et al., 2013
 Cyrtodactylus tebuensis Grismer et al., 2013
 Cyrtodactylus teyniei David et al., 2011
-Cyrtodactylus thathomensis Nazarov et al., 2018[91]
+Cyrtodactylus thathomensis Nazarov et al., 2018
 Cyrtodactylus thirakhupti Pauwels et al., 2004
 Cyrtodactylus thochuensis Ngo Van Tri &amp; Grismer, 2012
-Cyrtodactylus thongphaphumensis Grismer et al., 2023[92]
+Cyrtodactylus thongphaphumensis Grismer et al., 2023
 Cyrtodactylus thuongae Phung et al., 2014
-Cyrtodactylus thylacodactylus Murdoch et al., 2019[10]
+Cyrtodactylus thylacodactylus Murdoch et al., 2019
 Cyrtodactylus tibetanus (Boulenger, 1905)
 Cyrtodactylus tigroides Bauer et al., 2003
 Cyrtodactylus timur Grismer et al., 2014
@@ -938,30 +958,30 @@
 Cyrtodactylus triedrus (Günther, 1864)
 Cyrtodactylus trilatofasciatus Grismer et al., 2012
 Cyrtodactylus tripartitus Kraus, 2008
-Cyrtodactylus tripuraensis Agarwal et al., 2018[16]
+Cyrtodactylus tripuraensis Agarwal et al., 2018
 Cyrtodactylus tuberculatus (Lucas &amp; Frost, 1900)
-Cyrtodactylus urbanus Purkayastha et al., 2020[93]
-Cyrtodactylus uthaiensis Grismer et al., 2022[34]
-Cyrtodactylus vairengtensis Lalremsanga et al., 2023[94]
-Cyrtodactylus varadgirii Agarwal et al., 2016[95]
+Cyrtodactylus urbanus Purkayastha et al., 2020
+Cyrtodactylus uthaiensis Grismer et al., 2022
+Cyrtodactylus vairengtensis Lalremsanga et al., 2023
+Cyrtodactylus varadgirii Agarwal et al., 2016
 Cyrtodactylus variegatus (Blyth, 1859)
-Cyrtodactylus vedda Amarasinghe et al., 2022[96]
+Cyrtodactylus vedda Amarasinghe et al., 2022
 Cyrtodactylus vilaphongi Schneider et al., 2014
 Cyrtodactylus wakeorum Bauer, 2003
 Cyrtodactylus wallacei Hayden et al., 2008
-Cyrtodactylus wangkhramensis Termprayoon et al., 2023[84]
+Cyrtodactylus wangkhramensis Termprayoon et al., 2023
 Cyrtodactylus wangkulangkulae Sumontha et al., 2014
 Cyrtodactylus wayakonei Nguyen et al., 2010
-Cyrtodactylus welpyanensis Grismer et al., 2017[25]
+Cyrtodactylus welpyanensis Grismer et al., 2017
 Cyrtodactylus wetariensis (Dunn, 1927)
 Cyrtodactylus yakhuna (Deraniyagala, 1945)
 Cyrtodactylus yangbayensis Ngo Van Tri &amp; Onn, 2010
-Cyrtodactylus yathepyanensis Grismer et al., 2017[25]
+Cyrtodactylus yathepyanensis Grismer et al., 2017
 Cyrtodactylus yoshii Hikida, 1990
-Cyrtodactylus ywanganensis Grismer et al., 2018[97]
+Cyrtodactylus ywanganensis Grismer et al., 2018
 Cyrtodactylus zebraicus (Taylor, 1962)
 Cyrtodactylus zhaoermii Shi &amp; Zhao, 2010
-Cyrtodactylus zhenkangensis Liu &amp; Rao, 2021[98]
+Cyrtodactylus zhenkangensis Liu &amp; Rao, 2021
 Cyrtodactylus ziegleri Nazarov et al., 2008
 Cyrtodactylus zugi Oliver et al., 2008
 </t>
@@ -992,7 +1012,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1827 : A Synopsis of the Genera of Saurian Reptiles, in which some new Genera are indicated, and the others reviewed by actual Examination. The Philosophical Magazine, or Annals of Chemistry, Mathematics, Astronomy, Natural History, and General Science, vol. 2, no 7, p. 54-58 (texte intégral).</t>
         </is>
